--- a/ValueSet-R5-citation-summary-style-for-R4.xlsx
+++ b/ValueSet-R5-citation-summary-style-for-R4.xlsx
@@ -61,19 +61,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>FHIR Infrastructure</t>
+    <t>Clinical Decision Support</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>FHIR Infrastructure (http://www.hl7.org/Special/committees/fiwg)</t>
+    <t>Clinical Decision Support (http://www.hl7.org/Special/committees/dss)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -103,7 +103,8 @@
 * _no concepts_
 Following are the generation technical comments:
 All concepts in the comparison are listed as identical.
-The source and target value sets have the same number of active concepts (14).</t>
+The source and target value sets have the same number of active concepts (14).
+FHIR ValueSet `http://hl7.org/fhir/ValueSet/citation-summary-style|5.0.0`, defined in FHIR R5 does not have any mapping to FHIR R4</t>
   </si>
   <si>
     <t>Copyright</t>
